--- a/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
@@ -2281,21 +2281,9 @@
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>Red Van available, Equip</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
@@ -2340,17 +2328,17 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>Red Van available, Equip</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2397,17 +2385,17 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>work w/ Carlie</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2450,15 +2438,19 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr"/>
+          <t>Mariah</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
@@ -2511,12 +2503,12 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2568,12 +2560,12 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2633,8 +2625,16 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>

--- a/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
@@ -2237,7 +2237,11 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>MAPPED</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>

--- a/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
@@ -2194,7 +2194,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>5:30 am meet for Carlie and Trevor in Grafton</t>
+          <t>MAPPED</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -2237,11 +2237,7 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>MAPPED</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2285,9 +2281,21 @@
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
@@ -2332,17 +2340,17 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Red Van available, Equip</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2389,17 +2397,17 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>work w/ Carlie</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2442,19 +2450,15 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Mariah</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
@@ -2507,14 +2511,10 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2564,12 +2564,12 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2629,16 +2629,8 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>

--- a/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
@@ -2514,7 +2514,11 @@
           <t>5)</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2569,10 +2573,14 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr"/>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>

--- a/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
@@ -1378,7 +1378,11 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Until 12:30</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>

--- a/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
@@ -546,28 +546,76 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 5-6</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1-2</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Bags 1-2</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -579,24 +627,56 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bags 5-6</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bags 5-6</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -616,8 +696,16 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>

--- a/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1671,10 +1671,14 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1773,14 +1777,10 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -2050,10 +2050,14 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2107,12 +2111,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>work w/ Leyna</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -2161,21 +2165,9 @@
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>work w/ Leyna</t>
-        </is>
-      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2276,7 +2268,11 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -2319,7 +2315,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2360,7 +2356,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SENDIK'S FRESH2GO, BAYSIDE</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2417,7 +2413,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>SENDIK'S FRESH2GO, BAYSIDE</t>
+          <t>340 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2474,7 +2470,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>340 W BROWN DEER RD</t>
+          <t>https://goo.gl/maps/CmpDt8x8rNKaMffi6</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2527,7 +2523,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CmpDt8x8rNKaMffi6</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2588,7 +2584,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2645,7 +2641,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SENDIK'S FRESH2GO, MILWAUKEE-MARQUETTE</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2720,7 +2716,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>SENDIK'S FRESH2GO, MILWAUKEE-MARQUETTE</t>
+          <t>824 N 16TH STREET</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2773,7 +2769,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>824 N 16TH STREET</t>
+          <t>https://goo.gl/maps/vvRFWmX5pX32</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2836,11 +2832,7 @@
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/vvRFWmX5pX32</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
@@ -2884,9 +2876,21 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2935,19 +2939,15 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3004,12 +3004,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -3069,12 +3069,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3132,16 +3132,8 @@
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Lexi</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">

--- a/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
@@ -1188,14 +1188,10 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>work w/ Leyna</t>
-        </is>
-      </c>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
@@ -1228,7 +1224,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
@@ -1273,10 +1269,14 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>work w/ Leyna</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1375,15 +1375,10 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1408,7 +1403,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1463,14 +1458,10 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Until 12:30</t>
-        </is>
-      </c>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1479,10 +1470,15 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1507,7 +1503,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1561,12 +1557,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Until 9:00</t>
+          <t>Until 12:30</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -1577,7 +1573,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1606,7 +1602,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1659,10 +1655,14 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Until 9:00</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
@@ -1671,14 +1671,10 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1704,7 +1700,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1761,14 +1757,10 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1777,10 +1769,14 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1799,8 +1795,16 @@
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
@@ -1847,10 +1851,14 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1859,7 +1867,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1912,7 +1920,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1924,7 +1932,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1942,11 +1950,7 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
@@ -1977,7 +1981,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1989,7 +1993,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -2009,7 +2013,7 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -2039,8 +2043,16 @@
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
@@ -2050,14 +2062,10 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2074,7 +2082,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>*NEW LOCATION</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -2111,12 +2119,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -2139,7 +2147,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>MONTERREY MARKET, MILWAUKEE-MAIN ST</t>
+          <t>*NEW LOCATION</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -2158,16 +2166,24 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>work w/ Leyna</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2188,7 +2204,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>7025 W MAIN ST</t>
+          <t>MONTERREY MARKET, MILWAUKEE-MAIN ST</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -2209,7 +2225,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -2237,7 +2253,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/d9EfKz4wGsrRi6kr7</t>
+          <t>7025 W MAIN ST</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -2262,17 +2278,13 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>MONTERREY MARKET, MILWAUKEE - 13TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -2282,7 +2294,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>MAPPED</t>
+          <t>https://maps.app.goo.gl/d9EfKz4wGsrRi6kr7</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -2307,7 +2319,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>3014 S 13TH ST</t>
+          <t>MONTERREY MARKET, MILWAUKEE - 13TH ST</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2315,7 +2327,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2325,7 +2337,11 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>MAPPED</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2348,7 +2364,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/FK82YGUL5p42ptnG9</t>
+          <t>3014 S 13TH ST</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2356,7 +2372,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>SENDIK'S FRESH2GO, BAYSIDE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2369,21 +2385,9 @@
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>Red Van available, Equip</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
@@ -2405,7 +2409,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>ENTER THRU BACK RECEIVING DOOR</t>
+          <t>https://maps.app.goo.gl/FK82YGUL5p42ptnG9</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2413,7 +2417,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>340 W BROWN DEER RD</t>
+          <t>SENDIK'S FRESH2GO, BAYSIDE</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2428,17 +2432,17 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>Red Van available, Equip</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2462,7 +2466,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>5:30 am meet for Carlie and Trevor in Grafton</t>
+          <t>ENTER THRU BACK RECEIVING DOOR</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2470,7 +2474,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CmpDt8x8rNKaMffi6</t>
+          <t>340 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2485,17 +2489,17 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>work w/ Carlie</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2517,13 +2521,17 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>5:30 am meet for Carlie and Trevor in Grafton</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/CmpDt8x8rNKaMffi6</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2538,15 +2546,19 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr"/>
+          <t>Mariah</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
@@ -2565,26 +2577,14 @@
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Red Van available, Equip</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2599,12 +2599,12 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2624,24 +2624,24 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Anamaria</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>work w/ Carlie</t>
+          <t>Red Van available, Equip</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>SENDIK'S FRESH2GO, MILWAUKEE-MARQUETTE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2656,19 +2656,15 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
@@ -2698,25 +2694,24 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Anamaria</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>w/ Trevor,
-Trainer</t>
+          <t>work w/ Carlie</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>824 N 16TH STREET</t>
+          <t>SENDIK'S FRESH2GO, MILWAUKEE-MARQUETTE</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2725,9 +2720,21 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
@@ -2756,20 +2763,25 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>w/ Trevor,
+Trainer</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vvRFWmX5pX32</t>
+          <t>824 N 16TH STREET</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2817,22 +2829,22 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/vvRFWmX5pX32</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
@@ -2872,25 +2884,25 @@
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2939,15 +2951,19 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2995,21 +3011,17 @@
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>10:00 AM START</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -3062,19 +3074,19 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>10:00 AM START</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3127,13 +3139,21 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>GENOA CITY LIQUORS</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lexi</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
@@ -3185,7 +3205,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>413 WALWORTH ST</t>
+          <t>GENOA CITY LIQUORS</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -3218,7 +3238,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/YdvojF2HzVXXgrKHA</t>
+          <t>413 WALWORTH ST</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3251,7 +3271,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Start at Sendiks</t>
+          <t>https://maps.app.goo.gl/YdvojF2HzVXXgrKHA</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3286,7 +3306,11 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Start at Sendiks</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -3318,21 +3342,9 @@
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -3363,9 +3375,21 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>

--- a/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
@@ -1560,11 +1560,7 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Until 12:30</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>

--- a/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
@@ -2684,7 +2684,7 @@
       <c r="G37" t="inlineStr">
         <is>
           <t>Driver,
-Red Van, Equip</t>
+Santa Fe, Equip</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>

--- a/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
@@ -1919,7 +1919,11 @@
           <t>Monica</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Until 11:30</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>

--- a/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
@@ -1305,7 +1305,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1791,16 +1791,8 @@
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
@@ -1950,7 +1942,11 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
@@ -2013,7 +2009,7 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -2082,7 +2078,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>*NEW LOCATION</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -2147,7 +2143,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>*NEW LOCATION</t>
+          <t>MONTERREY MARKET, MILWAUKEE-MAIN ST</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -2204,7 +2200,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>MONTERREY MARKET, MILWAUKEE-MAIN ST</t>
+          <t>7025 W MAIN ST</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -2253,7 +2249,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>7025 W MAIN ST</t>
+          <t>https://maps.app.goo.gl/d9EfKz4wGsrRi6kr7</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -2294,7 +2290,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/d9EfKz4wGsrRi6kr7</t>
+          <t>MAPPED</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -2337,11 +2333,7 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>MAPPED</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2385,9 +2377,21 @@
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
@@ -2432,17 +2436,17 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Red Van available, Equip</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2489,17 +2493,17 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>work w/ Carlie</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2546,19 +2550,15 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Mariah</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
@@ -2599,12 +2599,12 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2656,15 +2656,19 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr"/>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
@@ -2720,21 +2724,9 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>

--- a/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
@@ -1317,7 +1317,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr"/>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr"/>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr"/>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr"/>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr"/>
@@ -1753,10 +1753,14 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1839,12 +1843,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>Until 11:30</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -1908,14 +1912,10 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Until 11:30</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -2039,16 +2039,8 @@
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
@@ -2162,7 +2154,11 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
@@ -2221,7 +2217,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -2274,7 +2270,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>MONTERREY MARKET, MILWAUKEE - 13TH ST</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2315,7 +2311,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>MONTERREY MARKET, MILWAUKEE - 13TH ST</t>
+          <t>3014 S 13TH ST</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2356,7 +2352,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>3014 S 13TH ST</t>
+          <t>https://maps.app.goo.gl/FK82YGUL5p42ptnG9</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2413,7 +2409,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/FK82YGUL5p42ptnG9</t>
+          <t>ENTER THRU BACK RECEIVING DOOR</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2470,7 +2466,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>ENTER THRU BACK RECEIVING DOOR</t>
+          <t>5:30 am meet for Carlie and Trevor in Grafton</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2525,11 +2521,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>5:30 am meet for Carlie and Trevor in Grafton</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
@@ -2577,9 +2569,21 @@
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
@@ -2624,17 +2628,17 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Anamaria</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Red Van available, Equip</t>
+          <t>work w/ Carlie</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
@@ -2698,17 +2702,18 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Anamaria</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>work w/ Carlie</t>
+          <t>w/ Trevor,
+Trainer</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
@@ -2755,20 +2760,15 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>w/ Trevor,
-Trainer</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
@@ -2821,15 +2821,19 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -2876,21 +2880,9 @@
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -3003,7 +2995,11 @@
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>10:00 AM START</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
@@ -3066,7 +3062,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>10:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -3078,7 +3074,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3131,7 +3127,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>GENOA CITY LIQUORS</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -3143,7 +3139,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3197,7 +3193,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>GENOA CITY LIQUORS</t>
+          <t>413 WALWORTH ST</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -3230,7 +3226,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>413 WALWORTH ST</t>
+          <t>https://maps.app.goo.gl/YdvojF2HzVXXgrKHA</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3263,7 +3259,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/YdvojF2HzVXXgrKHA</t>
+          <t>Start at Sendiks</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3298,11 +3294,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Start at Sendiks</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -3334,9 +3326,21 @@
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -3367,21 +3371,9 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>

--- a/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
@@ -796,7 +796,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>COURTESY MEET</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -853,7 +853,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -910,7 +910,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -968,7 +968,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>SENDIK'S, GRAFTON</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2195 1ST AVE</t>
+          <t>SENDIK'S, GRAFTON</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7S8pmjp4vMm</t>
+          <t>2195 1ST AVE</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -1131,7 +1131,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>FULL RESET-REMAPPED</t>
+          <t>https://goo.gl/maps/7S8pmjp4vMm</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -1212,7 +1212,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>No meet for Carlie and Trevor.</t>
+          <t>FULL RESET-REMAPPED</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -1295,7 +1295,11 @@
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>No meet for Carlie and Trevor.</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
@@ -1380,21 +1384,9 @@
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1482,17 +1474,17 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Anamaria</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>work w/ Carlie</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -1576,18 +1568,17 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Anamaria</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>work w/ Carlie</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -1674,18 +1665,18 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -1780,18 +1771,18 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Altima</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1866,15 +1857,20 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -1931,12 +1927,12 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1996,12 +1992,12 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -2057,12 +2053,12 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -2118,19 +2114,15 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
@@ -2179,12 +2171,12 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2228,12 +2220,12 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2279,9 +2271,21 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
@@ -2366,11 +2370,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
@@ -2425,7 +2425,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2482,7 +2482,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>MONTERREY MARKET, MILWAUKEE-27TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2535,7 +2535,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>3920 S 27TH ST</t>
+          <t>MONTERREY MARKET, MILWAUKEE-27TH ST</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/865vEfb8DDxyZYWw7</t>
+          <t>3920 S 27TH ST</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2653,7 +2653,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>COME IN THRU BACK DOOR BY RECEIVING DOCK</t>
+          <t>https://maps.app.goo.gl/865vEfb8DDxyZYWw7</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2726,7 +2726,11 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>COME IN THRU BACK DOOR BY RECEIVING DOCK</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
@@ -2778,21 +2782,9 @@
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Red Van available, Equip</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
@@ -2845,15 +2837,19 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
@@ -2890,12 +2886,12 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2951,19 +2947,15 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -3016,12 +3008,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -3081,17 +3073,17 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>work w/ Jerry</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -3146,17 +3138,17 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>2nd day, work w/ Leyna</t>
+          <t>work w/ Jerry</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -3202,9 +3194,21 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>2nd day, work w/ Leyna</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>

--- a/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Milwaukee Schedule.xlsx
@@ -2333,7 +2333,11 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>COME IN THRU BACK DOOR BY RECEIVING DOCK</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2373,21 +2377,9 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>Red Van available, Equip</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
@@ -2432,17 +2424,17 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>Red Van available, Equip</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2489,17 +2481,17 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>work w/ Carlie</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2542,15 +2534,19 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr"/>
+          <t>Mariah</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
@@ -2603,12 +2599,12 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2660,19 +2656,15 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
@@ -2733,9 +2725,21 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
